--- a/DEMO.xlsx
+++ b/DEMO.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/Intern/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6610E2-3101-3D4E-A99D-3C8B5F03A887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954F1627-12EE-4F4A-B934-06562E65D325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{6CAFF89F-F562-AC41-9D8D-83CF70942451}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{6CAFF89F-F562-AC41-9D8D-83CF70942451}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Action" sheetId="2" r:id="rId2"/>
+    <sheet name="Adventure" sheetId="3" r:id="rId3"/>
+    <sheet name="Action;Action &amp; Adventure" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Action!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$859</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6667" uniqueCount="1462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6743" uniqueCount="1468">
   <si>
     <t>DEER HUNTER CHALLENGE</t>
   </si>
@@ -4419,6 +4426,24 @@
   </si>
   <si>
     <t>Android Ver</t>
+  </si>
+  <si>
+    <t>Rating_Action</t>
+  </si>
+  <si>
+    <t>Rating_Adventure</t>
+  </si>
+  <si>
+    <t>Rating_Action;Action &amp; Adventure</t>
+  </si>
+  <si>
+    <t>Installs_Action</t>
+  </si>
+  <si>
+    <t>Installs_Adventure</t>
+  </si>
+  <si>
+    <t>Installs_Action;Action &amp; Adventure</t>
   </si>
 </sst>
 </file>
@@ -4890,10 +4915,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F226AF-7D3D-2B47-93EE-03354105C8A3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L859"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B577" sqref="B577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4936,7 +4962,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4974,7 +5000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -5012,7 +5038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -5050,7 +5076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -5088,7 +5114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -5126,7 +5152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -5164,7 +5190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -5202,7 +5228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -5240,7 +5266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -5278,7 +5304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -5316,7 +5342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -5354,7 +5380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -5392,7 +5418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -5430,7 +5456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
@@ -5468,7 +5494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -5506,7 +5532,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>57</v>
       </c>
@@ -5544,7 +5570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -5582,7 +5608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
@@ -5620,7 +5646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -5658,7 +5684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -5696,7 +5722,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -5734,7 +5760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
@@ -5772,7 +5798,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -5810,7 +5836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>76</v>
       </c>
@@ -5848,7 +5874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -5886,7 +5912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
@@ -5924,7 +5950,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -5962,7 +5988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
@@ -6000,7 +6026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
@@ -6038,7 +6064,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
@@ -6076,7 +6102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>92</v>
       </c>
@@ -6114,7 +6140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>94</v>
       </c>
@@ -6152,7 +6178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -6190,7 +6216,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>99</v>
       </c>
@@ -6228,7 +6254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -6266,7 +6292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>104</v>
       </c>
@@ -6304,7 +6330,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>108</v>
       </c>
@@ -6342,7 +6368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>111</v>
       </c>
@@ -6380,7 +6406,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
@@ -6418,7 +6444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>116</v>
       </c>
@@ -6456,7 +6482,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>119</v>
       </c>
@@ -6494,7 +6520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>120</v>
       </c>
@@ -6532,7 +6558,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>123</v>
       </c>
@@ -6570,7 +6596,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>125</v>
       </c>
@@ -6608,7 +6634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>128</v>
       </c>
@@ -6642,7 +6668,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>131</v>
       </c>
@@ -6680,7 +6706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>133</v>
       </c>
@@ -6718,7 +6744,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>134</v>
       </c>
@@ -6756,7 +6782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>137</v>
       </c>
@@ -6794,7 +6820,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>138</v>
       </c>
@@ -6832,7 +6858,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>141</v>
       </c>
@@ -6870,7 +6896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>143</v>
       </c>
@@ -6908,7 +6934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>145</v>
       </c>
@@ -6946,7 +6972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>147</v>
       </c>
@@ -6984,7 +7010,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>149</v>
       </c>
@@ -7022,7 +7048,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>152</v>
       </c>
@@ -7060,7 +7086,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>156</v>
       </c>
@@ -7098,7 +7124,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>158</v>
       </c>
@@ -7136,7 +7162,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>160</v>
       </c>
@@ -7174,7 +7200,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>162</v>
       </c>
@@ -7212,7 +7238,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>164</v>
       </c>
@@ -7250,7 +7276,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>166</v>
       </c>
@@ -7288,7 +7314,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>169</v>
       </c>
@@ -7326,7 +7352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>171</v>
       </c>
@@ -7364,7 +7390,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>173</v>
       </c>
@@ -7402,7 +7428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>175</v>
       </c>
@@ -7440,7 +7466,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>176</v>
       </c>
@@ -7478,7 +7504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>178</v>
       </c>
@@ -7516,7 +7542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>180</v>
       </c>
@@ -7554,7 +7580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>182</v>
       </c>
@@ -7592,7 +7618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>183</v>
       </c>
@@ -7630,7 +7656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>184</v>
       </c>
@@ -7664,7 +7690,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>189</v>
       </c>
@@ -7702,7 +7728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>190</v>
       </c>
@@ -7740,7 +7766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>192</v>
       </c>
@@ -7778,7 +7804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>193</v>
       </c>
@@ -7816,7 +7842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>194</v>
       </c>
@@ -7854,7 +7880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>196</v>
       </c>
@@ -7892,7 +7918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>199</v>
       </c>
@@ -7930,7 +7956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>201</v>
       </c>
@@ -7968,7 +7994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>204</v>
       </c>
@@ -8006,7 +8032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>205</v>
       </c>
@@ -8044,7 +8070,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>205</v>
       </c>
@@ -8082,7 +8108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>208</v>
       </c>
@@ -8120,7 +8146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>209</v>
       </c>
@@ -8158,7 +8184,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>211</v>
       </c>
@@ -8196,7 +8222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>212</v>
       </c>
@@ -8234,7 +8260,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>214</v>
       </c>
@@ -8272,7 +8298,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>214</v>
       </c>
@@ -8310,7 +8336,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>216</v>
       </c>
@@ -8348,7 +8374,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>219</v>
       </c>
@@ -8382,7 +8408,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>222</v>
       </c>
@@ -8420,7 +8446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>223</v>
       </c>
@@ -8458,7 +8484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>224</v>
       </c>
@@ -8496,7 +8522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>225</v>
       </c>
@@ -8534,7 +8560,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>226</v>
       </c>
@@ -8572,7 +8598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>227</v>
       </c>
@@ -8610,7 +8636,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>229</v>
       </c>
@@ -8648,7 +8674,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>231</v>
       </c>
@@ -8686,7 +8712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>232</v>
       </c>
@@ -8724,7 +8750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>233</v>
       </c>
@@ -8762,7 +8788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>234</v>
       </c>
@@ -8800,7 +8826,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>236</v>
       </c>
@@ -8838,7 +8864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>238</v>
       </c>
@@ -8876,7 +8902,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>240</v>
       </c>
@@ -8914,7 +8940,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>242</v>
       </c>
@@ -8952,7 +8978,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>243</v>
       </c>
@@ -8986,7 +9012,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>246</v>
       </c>
@@ -9024,7 +9050,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>248</v>
       </c>
@@ -9062,7 +9088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>250</v>
       </c>
@@ -9100,7 +9126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>251</v>
       </c>
@@ -9138,7 +9164,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>253</v>
       </c>
@@ -9176,7 +9202,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>257</v>
       </c>
@@ -9214,7 +9240,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>258</v>
       </c>
@@ -9252,7 +9278,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>260</v>
       </c>
@@ -9286,7 +9312,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>262</v>
       </c>
@@ -9324,7 +9350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>262</v>
       </c>
@@ -9362,7 +9388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>262</v>
       </c>
@@ -9400,7 +9426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>262</v>
       </c>
@@ -9438,7 +9464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>262</v>
       </c>
@@ -9476,7 +9502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>262</v>
       </c>
@@ -9514,7 +9540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>264</v>
       </c>
@@ -9552,7 +9578,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>265</v>
       </c>
@@ -9590,7 +9616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>266</v>
       </c>
@@ -9628,7 +9654,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>268</v>
       </c>
@@ -9666,7 +9692,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>269</v>
       </c>
@@ -9704,7 +9730,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>271</v>
       </c>
@@ -9742,7 +9768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>273</v>
       </c>
@@ -9780,7 +9806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>275</v>
       </c>
@@ -9818,7 +9844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>277</v>
       </c>
@@ -9852,7 +9878,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>280</v>
       </c>
@@ -9890,7 +9916,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>283</v>
       </c>
@@ -9928,7 +9954,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>284</v>
       </c>
@@ -9966,7 +9992,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>286</v>
       </c>
@@ -10004,7 +10030,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>289</v>
       </c>
@@ -10042,7 +10068,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>290</v>
       </c>
@@ -10076,7 +10102,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>294</v>
       </c>
@@ -10110,7 +10136,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>295</v>
       </c>
@@ -10148,7 +10174,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>297</v>
       </c>
@@ -10186,7 +10212,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>299</v>
       </c>
@@ -10224,7 +10250,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>301</v>
       </c>
@@ -10262,7 +10288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>303</v>
       </c>
@@ -10300,7 +10326,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>305</v>
       </c>
@@ -10338,7 +10364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>306</v>
       </c>
@@ -10376,7 +10402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>307</v>
       </c>
@@ -10414,7 +10440,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>310</v>
       </c>
@@ -10452,7 +10478,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>311</v>
       </c>
@@ -10486,7 +10512,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>312</v>
       </c>
@@ -10524,7 +10550,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>313</v>
       </c>
@@ -10558,7 +10584,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>316</v>
       </c>
@@ -10596,7 +10622,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>318</v>
       </c>
@@ -10634,7 +10660,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>319</v>
       </c>
@@ -10672,7 +10698,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>321</v>
       </c>
@@ -10710,7 +10736,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>322</v>
       </c>
@@ -10748,7 +10774,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>325</v>
       </c>
@@ -10786,7 +10812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>326</v>
       </c>
@@ -10824,7 +10850,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>327</v>
       </c>
@@ -10862,7 +10888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>328</v>
       </c>
@@ -10900,7 +10926,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>329</v>
       </c>
@@ -10938,7 +10964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>330</v>
       </c>
@@ -10976,7 +11002,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>331</v>
       </c>
@@ -11014,7 +11040,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>331</v>
       </c>
@@ -11048,7 +11074,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>333</v>
       </c>
@@ -11086,7 +11112,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>334</v>
       </c>
@@ -11124,7 +11150,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>336</v>
       </c>
@@ -11162,7 +11188,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>337</v>
       </c>
@@ -11196,7 +11222,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>340</v>
       </c>
@@ -11234,7 +11260,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>341</v>
       </c>
@@ -11272,7 +11298,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>343</v>
       </c>
@@ -11310,7 +11336,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>343</v>
       </c>
@@ -11348,7 +11374,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>343</v>
       </c>
@@ -11386,7 +11412,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>343</v>
       </c>
@@ -11424,7 +11450,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>343</v>
       </c>
@@ -11462,7 +11488,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>343</v>
       </c>
@@ -11500,7 +11526,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>345</v>
       </c>
@@ -11534,7 +11560,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>346</v>
       </c>
@@ -11572,7 +11598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>348</v>
       </c>
@@ -11610,7 +11636,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>349</v>
       </c>
@@ -11648,7 +11674,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>350</v>
       </c>
@@ -11686,7 +11712,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>351</v>
       </c>
@@ -11724,7 +11750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>352</v>
       </c>
@@ -11762,7 +11788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>355</v>
       </c>
@@ -11800,7 +11826,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>356</v>
       </c>
@@ -11838,7 +11864,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>358</v>
       </c>
@@ -11876,7 +11902,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>359</v>
       </c>
@@ -11914,7 +11940,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>360</v>
       </c>
@@ -11952,7 +11978,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>363</v>
       </c>
@@ -11990,7 +12016,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>365</v>
       </c>
@@ -12028,7 +12054,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>366</v>
       </c>
@@ -12066,7 +12092,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>366</v>
       </c>
@@ -12104,7 +12130,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>366</v>
       </c>
@@ -12142,7 +12168,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>366</v>
       </c>
@@ -12180,7 +12206,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>366</v>
       </c>
@@ -12218,7 +12244,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>366</v>
       </c>
@@ -12256,7 +12282,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>369</v>
       </c>
@@ -12294,7 +12320,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>372</v>
       </c>
@@ -12332,7 +12358,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>374</v>
       </c>
@@ -12370,7 +12396,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>375</v>
       </c>
@@ -12408,7 +12434,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>376</v>
       </c>
@@ -12446,7 +12472,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>379</v>
       </c>
@@ -12484,7 +12510,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>380</v>
       </c>
@@ -12522,7 +12548,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>381</v>
       </c>
@@ -12560,7 +12586,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>382</v>
       </c>
@@ -12598,7 +12624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>384</v>
       </c>
@@ -12636,7 +12662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>386</v>
       </c>
@@ -12674,7 +12700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>388</v>
       </c>
@@ -12712,7 +12738,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>388</v>
       </c>
@@ -12750,7 +12776,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>390</v>
       </c>
@@ -12788,7 +12814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>391</v>
       </c>
@@ -12826,7 +12852,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>392</v>
       </c>
@@ -12864,7 +12890,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>394</v>
       </c>
@@ -12902,7 +12928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>395</v>
       </c>
@@ -12940,7 +12966,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>397</v>
       </c>
@@ -12978,7 +13004,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>395</v>
       </c>
@@ -13016,7 +13042,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>399</v>
       </c>
@@ -13054,7 +13080,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>400</v>
       </c>
@@ -13092,7 +13118,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>401</v>
       </c>
@@ -13126,7 +13152,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>403</v>
       </c>
@@ -13164,7 +13190,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>404</v>
       </c>
@@ -13202,7 +13228,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>405</v>
       </c>
@@ -13240,7 +13266,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>406</v>
       </c>
@@ -13278,7 +13304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>408</v>
       </c>
@@ -13316,7 +13342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>410</v>
       </c>
@@ -13354,7 +13380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>411</v>
       </c>
@@ -13392,7 +13418,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>408</v>
       </c>
@@ -13430,7 +13456,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>413</v>
       </c>
@@ -13468,7 +13494,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>414</v>
       </c>
@@ -13506,7 +13532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>416</v>
       </c>
@@ -13544,7 +13570,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>419</v>
       </c>
@@ -13582,7 +13608,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>421</v>
       </c>
@@ -13620,7 +13646,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>421</v>
       </c>
@@ -13658,7 +13684,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>423</v>
       </c>
@@ -13696,7 +13722,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>424</v>
       </c>
@@ -13734,7 +13760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>426</v>
       </c>
@@ -13772,7 +13798,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>427</v>
       </c>
@@ -13810,7 +13836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>429</v>
       </c>
@@ -13848,7 +13874,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>427</v>
       </c>
@@ -13886,7 +13912,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>431</v>
       </c>
@@ -13924,7 +13950,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>433</v>
       </c>
@@ -13958,7 +13984,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>434</v>
       </c>
@@ -13996,7 +14022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>436</v>
       </c>
@@ -14034,7 +14060,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>436</v>
       </c>
@@ -14072,7 +14098,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>438</v>
       </c>
@@ -14110,7 +14136,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>440</v>
       </c>
@@ -14148,7 +14174,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>441</v>
       </c>
@@ -14186,7 +14212,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>443</v>
       </c>
@@ -14224,7 +14250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>446</v>
       </c>
@@ -14262,7 +14288,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>443</v>
       </c>
@@ -14300,7 +14326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>443</v>
       </c>
@@ -14338,7 +14364,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>446</v>
       </c>
@@ -14376,7 +14402,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>443</v>
       </c>
@@ -14414,7 +14440,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>443</v>
       </c>
@@ -14452,7 +14478,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>446</v>
       </c>
@@ -14490,7 +14516,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>447</v>
       </c>
@@ -14528,7 +14554,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>443</v>
       </c>
@@ -14566,7 +14592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
         <v>446</v>
       </c>
@@ -14604,7 +14630,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>449</v>
       </c>
@@ -14638,7 +14664,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>452</v>
       </c>
@@ -14676,7 +14702,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>453</v>
       </c>
@@ -14714,7 +14740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>454</v>
       </c>
@@ -14752,7 +14778,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>456</v>
       </c>
@@ -14790,7 +14816,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>457</v>
       </c>
@@ -14828,7 +14854,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>459</v>
       </c>
@@ -14866,7 +14892,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
         <v>461</v>
       </c>
@@ -14904,7 +14930,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>463</v>
       </c>
@@ -14942,7 +14968,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
         <v>464</v>
       </c>
@@ -14980,7 +15006,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>466</v>
       </c>
@@ -15018,7 +15044,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
         <v>468</v>
       </c>
@@ -15056,7 +15082,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>470</v>
       </c>
@@ -15094,7 +15120,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>472</v>
       </c>
@@ -15132,7 +15158,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>473</v>
       </c>
@@ -15170,7 +15196,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>475</v>
       </c>
@@ -15208,7 +15234,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>478</v>
       </c>
@@ -15246,7 +15272,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
         <v>480</v>
       </c>
@@ -15284,7 +15310,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>481</v>
       </c>
@@ -15322,7 +15348,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
         <v>484</v>
       </c>
@@ -15360,7 +15386,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>485</v>
       </c>
@@ -15398,7 +15424,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
         <v>486</v>
       </c>
@@ -15436,7 +15462,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>489</v>
       </c>
@@ -15474,7 +15500,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
         <v>490</v>
       </c>
@@ -15512,7 +15538,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>491</v>
       </c>
@@ -15550,7 +15576,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
         <v>486</v>
       </c>
@@ -15588,7 +15614,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>493</v>
       </c>
@@ -15626,7 +15652,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
         <v>494</v>
       </c>
@@ -15664,7 +15690,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>495</v>
       </c>
@@ -15702,7 +15728,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
         <v>496</v>
       </c>
@@ -15740,7 +15766,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>498</v>
       </c>
@@ -15778,7 +15804,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>500</v>
       </c>
@@ -15816,7 +15842,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>500</v>
       </c>
@@ -15854,7 +15880,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>500</v>
       </c>
@@ -15892,7 +15918,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>500</v>
       </c>
@@ -15930,7 +15956,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
         <v>502</v>
       </c>
@@ -15968,7 +15994,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>503</v>
       </c>
@@ -16006,7 +16032,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>500</v>
       </c>
@@ -16044,7 +16070,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>502</v>
       </c>
@@ -16082,7 +16108,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
         <v>503</v>
       </c>
@@ -16120,7 +16146,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>500</v>
       </c>
@@ -16158,7 +16184,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
         <v>505</v>
       </c>
@@ -16196,7 +16222,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>507</v>
       </c>
@@ -16234,7 +16260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
         <v>508</v>
       </c>
@@ -16272,7 +16298,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>508</v>
       </c>
@@ -16310,7 +16336,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
         <v>508</v>
       </c>
@@ -16348,7 +16374,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>508</v>
       </c>
@@ -16386,7 +16412,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
         <v>510</v>
       </c>
@@ -16424,7 +16450,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>512</v>
       </c>
@@ -16462,7 +16488,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
         <v>513</v>
       </c>
@@ -16500,7 +16526,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>515</v>
       </c>
@@ -16538,7 +16564,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
         <v>517</v>
       </c>
@@ -16576,7 +16602,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>518</v>
       </c>
@@ -16614,7 +16640,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
         <v>520</v>
       </c>
@@ -16652,7 +16678,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>522</v>
       </c>
@@ -16690,7 +16716,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
         <v>523</v>
       </c>
@@ -16728,7 +16754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>525</v>
       </c>
@@ -16762,7 +16788,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
         <v>526</v>
       </c>
@@ -16800,7 +16826,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>527</v>
       </c>
@@ -16838,7 +16864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
         <v>528</v>
       </c>
@@ -16876,7 +16902,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>529</v>
       </c>
@@ -16914,7 +16940,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
         <v>531</v>
       </c>
@@ -16952,7 +16978,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>532</v>
       </c>
@@ -16990,7 +17016,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
         <v>533</v>
       </c>
@@ -17028,7 +17054,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>536</v>
       </c>
@@ -17066,7 +17092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
         <v>537</v>
       </c>
@@ -17104,7 +17130,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>539</v>
       </c>
@@ -17142,7 +17168,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
         <v>540</v>
       </c>
@@ -17180,7 +17206,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>539</v>
       </c>
@@ -17218,7 +17244,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
         <v>542</v>
       </c>
@@ -17256,7 +17282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>545</v>
       </c>
@@ -17294,7 +17320,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
         <v>540</v>
       </c>
@@ -17332,7 +17358,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>539</v>
       </c>
@@ -17370,7 +17396,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
         <v>547</v>
       </c>
@@ -17408,7 +17434,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>549</v>
       </c>
@@ -17446,7 +17472,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
         <v>551</v>
       </c>
@@ -17484,7 +17510,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>549</v>
       </c>
@@ -17522,7 +17548,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
         <v>549</v>
       </c>
@@ -17560,7 +17586,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>552</v>
       </c>
@@ -17598,7 +17624,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
         <v>549</v>
       </c>
@@ -17636,7 +17662,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>554</v>
       </c>
@@ -17674,7 +17700,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
         <v>556</v>
       </c>
@@ -17712,7 +17738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>556</v>
       </c>
@@ -17750,7 +17776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
         <v>558</v>
       </c>
@@ -17788,7 +17814,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>561</v>
       </c>
@@ -17826,7 +17852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
         <v>556</v>
       </c>
@@ -17864,7 +17890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>563</v>
       </c>
@@ -17902,7 +17928,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
         <v>564</v>
       </c>
@@ -17940,7 +17966,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>556</v>
       </c>
@@ -17978,7 +18004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
         <v>566</v>
       </c>
@@ -18016,7 +18042,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>568</v>
       </c>
@@ -18054,7 +18080,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
         <v>563</v>
       </c>
@@ -18092,7 +18118,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>558</v>
       </c>
@@ -18130,7 +18156,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
         <v>561</v>
       </c>
@@ -18168,7 +18194,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>570</v>
       </c>
@@ -18206,7 +18232,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
         <v>572</v>
       </c>
@@ -18244,7 +18270,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>574</v>
       </c>
@@ -18282,7 +18308,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
         <v>574</v>
       </c>
@@ -18320,7 +18346,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>574</v>
       </c>
@@ -18358,7 +18384,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
         <v>574</v>
       </c>
@@ -18396,7 +18422,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>574</v>
       </c>
@@ -18434,7 +18460,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
         <v>574</v>
       </c>
@@ -18472,7 +18498,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>575</v>
       </c>
@@ -18510,7 +18536,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
         <v>577</v>
       </c>
@@ -18548,7 +18574,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>578</v>
       </c>
@@ -18586,7 +18612,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
         <v>580</v>
       </c>
@@ -18624,7 +18650,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>582</v>
       </c>
@@ -18662,7 +18688,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
         <v>584</v>
       </c>
@@ -18700,7 +18726,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>584</v>
       </c>
@@ -18738,7 +18764,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
         <v>582</v>
       </c>
@@ -18776,7 +18802,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>584</v>
       </c>
@@ -18814,7 +18840,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>586</v>
       </c>
@@ -18852,7 +18878,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>588</v>
       </c>
@@ -18890,7 +18916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5" t="s">
         <v>582</v>
       </c>
@@ -18928,7 +18954,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>590</v>
       </c>
@@ -18966,7 +18992,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
         <v>588</v>
       </c>
@@ -19004,7 +19030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>591</v>
       </c>
@@ -19042,7 +19068,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5" t="s">
         <v>584</v>
       </c>
@@ -19080,7 +19106,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>582</v>
       </c>
@@ -19118,7 +19144,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
         <v>592</v>
       </c>
@@ -19156,7 +19182,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>593</v>
       </c>
@@ -19194,7 +19220,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
         <v>594</v>
       </c>
@@ -19232,7 +19258,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>595</v>
       </c>
@@ -19270,7 +19296,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
         <v>596</v>
       </c>
@@ -19308,7 +19334,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>598</v>
       </c>
@@ -19346,7 +19372,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
         <v>601</v>
       </c>
@@ -19384,7 +19410,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>602</v>
       </c>
@@ -19418,7 +19444,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
         <v>604</v>
       </c>
@@ -19452,7 +19478,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>606</v>
       </c>
@@ -19486,7 +19512,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5" t="s">
         <v>608</v>
       </c>
@@ -19520,7 +19546,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>609</v>
       </c>
@@ -19554,7 +19580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
         <v>611</v>
       </c>
@@ -19588,7 +19614,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>613</v>
       </c>
@@ -19622,7 +19648,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5" t="s">
         <v>481</v>
       </c>
@@ -19656,7 +19682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>615</v>
       </c>
@@ -19690,7 +19716,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
         <v>616</v>
       </c>
@@ -19724,7 +19750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>617</v>
       </c>
@@ -19758,7 +19784,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5" t="s">
         <v>205</v>
       </c>
@@ -19792,7 +19818,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>619</v>
       </c>
@@ -19826,7 +19852,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
         <v>622</v>
       </c>
@@ -19860,7 +19886,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>624</v>
       </c>
@@ -19894,7 +19920,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5" t="s">
         <v>628</v>
       </c>
@@ -19928,7 +19954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>631</v>
       </c>
@@ -19962,7 +19988,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
         <v>632</v>
       </c>
@@ -19996,7 +20022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>635</v>
       </c>
@@ -20030,7 +20056,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
         <v>468</v>
       </c>
@@ -20064,7 +20090,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>638</v>
       </c>
@@ -20098,7 +20124,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
         <v>640</v>
       </c>
@@ -20132,7 +20158,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>643</v>
       </c>
@@ -20166,7 +20192,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
         <v>645</v>
       </c>
@@ -20200,7 +20226,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>647</v>
       </c>
@@ -20234,7 +20260,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
         <v>648</v>
       </c>
@@ -20268,7 +20294,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>651</v>
       </c>
@@ -20302,7 +20328,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
         <v>653</v>
       </c>
@@ -20336,7 +20362,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>655</v>
       </c>
@@ -20370,7 +20396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
         <v>659</v>
       </c>
@@ -20404,7 +20430,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>660</v>
       </c>
@@ -20438,7 +20464,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
         <v>662</v>
       </c>
@@ -20472,7 +20498,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>664</v>
       </c>
@@ -20506,7 +20532,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
         <v>666</v>
       </c>
@@ -20540,7 +20566,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>668</v>
       </c>
@@ -20574,7 +20600,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5" t="s">
         <v>669</v>
       </c>
@@ -20608,7 +20634,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>669</v>
       </c>
@@ -20642,7 +20668,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
         <v>670</v>
       </c>
@@ -20676,7 +20702,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>568</v>
       </c>
@@ -20710,7 +20736,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
         <v>672</v>
       </c>
@@ -20744,7 +20770,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>673</v>
       </c>
@@ -20778,7 +20804,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
         <v>676</v>
       </c>
@@ -20812,7 +20838,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>678</v>
       </c>
@@ -20846,7 +20872,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
         <v>679</v>
       </c>
@@ -20880,7 +20906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>681</v>
       </c>
@@ -20914,7 +20940,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5" t="s">
         <v>683</v>
       </c>
@@ -20948,7 +20974,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>686</v>
       </c>
@@ -20982,7 +21008,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5" t="s">
         <v>688</v>
       </c>
@@ -21016,7 +21042,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>689</v>
       </c>
@@ -21050,7 +21076,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
         <v>692</v>
       </c>
@@ -21084,7 +21110,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>694</v>
       </c>
@@ -21118,7 +21144,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
         <v>697</v>
       </c>
@@ -21152,7 +21178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>699</v>
       </c>
@@ -21186,7 +21212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>64</v>
       </c>
@@ -21220,7 +21246,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>704</v>
       </c>
@@ -21254,7 +21280,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
         <v>707</v>
       </c>
@@ -21288,7 +21314,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>710</v>
       </c>
@@ -21322,7 +21348,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
         <v>563</v>
       </c>
@@ -21356,7 +21382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>713</v>
       </c>
@@ -21390,7 +21416,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
         <v>715</v>
       </c>
@@ -21424,7 +21450,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>717</v>
       </c>
@@ -21458,7 +21484,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5" t="s">
         <v>719</v>
       </c>
@@ -21492,7 +21518,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>720</v>
       </c>
@@ -21526,7 +21552,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5" t="s">
         <v>722</v>
       </c>
@@ -21560,7 +21586,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>723</v>
       </c>
@@ -21594,7 +21620,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="5" t="s">
         <v>724</v>
       </c>
@@ -21628,7 +21654,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>726</v>
       </c>
@@ -21662,7 +21688,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
         <v>731</v>
       </c>
@@ -21696,7 +21722,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>733</v>
       </c>
@@ -21730,7 +21756,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
         <v>735</v>
       </c>
@@ -21764,7 +21790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>526</v>
       </c>
@@ -21798,7 +21824,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
         <v>737</v>
       </c>
@@ -21832,7 +21858,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>741</v>
       </c>
@@ -21866,7 +21892,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
         <v>743</v>
       </c>
@@ -21900,7 +21926,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>744</v>
       </c>
@@ -21934,7 +21960,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
         <v>746</v>
       </c>
@@ -21968,7 +21994,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>750</v>
       </c>
@@ -22002,7 +22028,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
         <v>753</v>
       </c>
@@ -22036,7 +22062,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>755</v>
       </c>
@@ -22070,7 +22096,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="5" t="s">
         <v>758</v>
       </c>
@@ -22104,7 +22130,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>761</v>
       </c>
@@ -22138,7 +22164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="5" t="s">
         <v>762</v>
       </c>
@@ -22172,7 +22198,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>765</v>
       </c>
@@ -22206,7 +22232,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="5" t="s">
         <v>768</v>
       </c>
@@ -22240,7 +22266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>770</v>
       </c>
@@ -22274,7 +22300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="5" t="s">
         <v>549</v>
       </c>
@@ -22308,7 +22334,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>774</v>
       </c>
@@ -22342,7 +22368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="5" t="s">
         <v>775</v>
       </c>
@@ -22376,7 +22402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>777</v>
       </c>
@@ -22410,7 +22436,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="5" t="s">
         <v>780</v>
       </c>
@@ -22444,7 +22470,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>782</v>
       </c>
@@ -22478,7 +22504,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="5" t="s">
         <v>784</v>
       </c>
@@ -22512,7 +22538,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>787</v>
       </c>
@@ -22546,7 +22572,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="5" t="s">
         <v>427</v>
       </c>
@@ -22580,7 +22606,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>791</v>
       </c>
@@ -22614,7 +22640,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="5" t="s">
         <v>794</v>
       </c>
@@ -22648,7 +22674,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>584</v>
       </c>
@@ -22682,7 +22708,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="5" t="s">
         <v>545</v>
       </c>
@@ -22716,7 +22742,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>800</v>
       </c>
@@ -22750,7 +22776,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="5" t="s">
         <v>804</v>
       </c>
@@ -22784,7 +22810,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>807</v>
       </c>
@@ -22818,7 +22844,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="5" t="s">
         <v>810</v>
       </c>
@@ -22852,7 +22878,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>316</v>
       </c>
@@ -22886,7 +22912,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
         <v>814</v>
       </c>
@@ -22920,7 +22946,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>817</v>
       </c>
@@ -22954,7 +22980,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="5" t="s">
         <v>820</v>
       </c>
@@ -22988,7 +23014,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>558</v>
       </c>
@@ -23022,7 +23048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="5" t="s">
         <v>823</v>
       </c>
@@ -23056,7 +23082,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>438</v>
       </c>
@@ -23090,7 +23116,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="5" t="s">
         <v>829</v>
       </c>
@@ -23124,7 +23150,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>832</v>
       </c>
@@ -23158,7 +23184,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="5" t="s">
         <v>835</v>
       </c>
@@ -23192,7 +23218,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>837</v>
       </c>
@@ -23226,7 +23252,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="5" t="s">
         <v>840</v>
       </c>
@@ -23260,7 +23286,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>843</v>
       </c>
@@ -23294,7 +23320,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="5" t="s">
         <v>847</v>
       </c>
@@ -23328,7 +23354,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>850</v>
       </c>
@@ -23362,7 +23388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="5" t="s">
         <v>853</v>
       </c>
@@ -23396,7 +23422,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>570</v>
       </c>
@@ -23430,7 +23456,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
         <v>570</v>
       </c>
@@ -23464,7 +23490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>857</v>
       </c>
@@ -23498,7 +23524,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="5" t="s">
         <v>860</v>
       </c>
@@ -23532,7 +23558,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>863</v>
       </c>
@@ -23566,7 +23592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="5" t="s">
         <v>860</v>
       </c>
@@ -23600,7 +23626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>866</v>
       </c>
@@ -23634,7 +23660,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="5" t="s">
         <v>868</v>
       </c>
@@ -23668,7 +23694,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>870</v>
       </c>
@@ -23702,7 +23728,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="5" t="s">
         <v>871</v>
       </c>
@@ -23736,7 +23762,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>873</v>
       </c>
@@ -23770,7 +23796,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="5" t="s">
         <v>875</v>
       </c>
@@ -23804,7 +23830,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>877</v>
       </c>
@@ -23838,7 +23864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="5" t="s">
         <v>880</v>
       </c>
@@ -23872,7 +23898,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>882</v>
       </c>
@@ -23906,7 +23932,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="5" t="s">
         <v>400</v>
       </c>
@@ -23940,7 +23966,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>884</v>
       </c>
@@ -23974,7 +24000,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="5" t="s">
         <v>443</v>
       </c>
@@ -24008,7 +24034,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>887</v>
       </c>
@@ -24042,7 +24068,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5" t="s">
         <v>890</v>
       </c>
@@ -24076,7 +24102,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>494</v>
       </c>
@@ -24110,7 +24136,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5" t="s">
         <v>895</v>
       </c>
@@ -24144,7 +24170,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>897</v>
       </c>
@@ -24178,7 +24204,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5" t="s">
         <v>898</v>
       </c>
@@ -24212,7 +24238,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>901</v>
       </c>
@@ -24246,7 +24272,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5" t="s">
         <v>510</v>
       </c>
@@ -24280,7 +24306,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>508</v>
       </c>
@@ -24314,7 +24340,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5" t="s">
         <v>510</v>
       </c>
@@ -24348,7 +24374,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>904</v>
       </c>
@@ -24382,7 +24408,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5" t="s">
         <v>906</v>
       </c>
@@ -24416,7 +24442,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>908</v>
       </c>
@@ -24450,7 +24476,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5" t="s">
         <v>910</v>
       </c>
@@ -24484,7 +24510,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>913</v>
       </c>
@@ -24518,7 +24544,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5" t="s">
         <v>916</v>
       </c>
@@ -24552,7 +24578,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>918</v>
       </c>
@@ -24586,7 +24612,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5" t="s">
         <v>459</v>
       </c>
@@ -24620,7 +24646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>923</v>
       </c>
@@ -24654,7 +24680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5" t="s">
         <v>926</v>
       </c>
@@ -24688,7 +24714,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>927</v>
       </c>
@@ -24722,7 +24748,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5" t="s">
         <v>931</v>
       </c>
@@ -24756,7 +24782,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>934</v>
       </c>
@@ -24790,7 +24816,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="5" t="s">
         <v>935</v>
       </c>
@@ -24824,7 +24850,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>923</v>
       </c>
@@ -24858,7 +24884,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="5" t="s">
         <v>937</v>
       </c>
@@ -24892,7 +24918,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>436</v>
       </c>
@@ -24926,7 +24952,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="5" t="s">
         <v>941</v>
       </c>
@@ -24960,7 +24986,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>943</v>
       </c>
@@ -24994,7 +25020,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5" t="s">
         <v>507</v>
       </c>
@@ -25028,7 +25054,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>946</v>
       </c>
@@ -25062,7 +25088,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5" t="s">
         <v>948</v>
       </c>
@@ -25096,7 +25122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>952</v>
       </c>
@@ -25130,7 +25156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5" t="s">
         <v>955</v>
       </c>
@@ -25162,7 +25188,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>958</v>
       </c>
@@ -25196,7 +25222,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5" t="s">
         <v>960</v>
       </c>
@@ -25230,7 +25256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>961</v>
       </c>
@@ -25264,7 +25290,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5" t="s">
         <v>964</v>
       </c>
@@ -25298,7 +25324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>966</v>
       </c>
@@ -25332,7 +25358,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5" t="s">
         <v>969</v>
       </c>
@@ -25366,7 +25392,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>972</v>
       </c>
@@ -25400,7 +25426,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5" t="s">
         <v>973</v>
       </c>
@@ -25434,7 +25460,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>974</v>
       </c>
@@ -25507,286 +25533,286 @@
       </c>
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A564" s="1" t="s">
+      <c r="A564" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B564" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="C564" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="D564" s="6">
+        <v>96045</v>
+      </c>
+      <c r="E564" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F564" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G564" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H564" s="6">
+        <v>0</v>
+      </c>
+      <c r="I564" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J564" s="7">
+        <v>42577</v>
+      </c>
+      <c r="K564" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="L564" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C565" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D565" s="2">
+        <v>43055</v>
+      </c>
+      <c r="E565" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G565" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H565" s="2">
+        <v>0</v>
+      </c>
+      <c r="I565" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J565" s="3">
+        <v>43280</v>
+      </c>
+      <c r="K565" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="L565" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A566" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="B566" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="C566" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="D566" s="6">
+        <v>43060</v>
+      </c>
+      <c r="E566" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="F566" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G566" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H566" s="6">
+        <v>0</v>
+      </c>
+      <c r="I566" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J566" s="7">
+        <v>43280</v>
+      </c>
+      <c r="K566" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="L566" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A567" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C567" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D567" s="2">
+        <v>43060</v>
+      </c>
+      <c r="E567" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G567" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H567" s="2">
+        <v>0</v>
+      </c>
+      <c r="I567" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J567" s="3">
+        <v>43280</v>
+      </c>
+      <c r="K567" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="L567" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A568" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="B568" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="C568" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="D568" s="6">
+        <v>43090</v>
+      </c>
+      <c r="E568" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="F568" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G568" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H568" s="6">
+        <v>0</v>
+      </c>
+      <c r="I568" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J568" s="7">
+        <v>43280</v>
+      </c>
+      <c r="K568" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="L568" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A569" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B564" s="2" t="s">
+      <c r="B569" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="C564" s="2">
+      <c r="C569" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D564" s="2">
+      <c r="D569" s="2">
         <v>412</v>
       </c>
-      <c r="E564" s="2" t="s">
+      <c r="E569" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F564" s="2" t="s">
+      <c r="F569" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G564" s="2" t="s">
+      <c r="G569" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H564" s="9">
+      <c r="H569" s="9">
         <v>2.99</v>
       </c>
-      <c r="I564" s="2" t="s">
+      <c r="I569" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J564" s="3">
+      <c r="J569" s="3">
         <v>42551</v>
       </c>
-      <c r="K564" s="2" t="s">
+      <c r="K569" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L564" s="4" t="s">
+      <c r="L569" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A565" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="B565" s="6" t="s">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A570" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="B570" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="C565" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="D565" s="6">
-        <v>96045</v>
-      </c>
-      <c r="E565" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F565" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G565" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H565" s="6">
-        <v>0</v>
-      </c>
-      <c r="I565" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J565" s="7">
-        <v>42577</v>
-      </c>
-      <c r="K565" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="L565" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A566" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="B566" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="C566" s="2">
+      <c r="C570" s="6">
         <v>4.5</v>
       </c>
-      <c r="D566" s="2">
-        <v>76608</v>
-      </c>
-      <c r="E566" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F566" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G566" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H566" s="2">
-        <v>0</v>
-      </c>
-      <c r="I566" s="2" t="s">
+      <c r="D570" s="6">
+        <v>1985</v>
+      </c>
+      <c r="E570" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F570" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G570" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H570" s="10">
+        <v>3.99</v>
+      </c>
+      <c r="I570" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J566" s="3">
-        <v>42740</v>
-      </c>
-      <c r="K566" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="L566" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A567" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="B567" s="6" t="s">
-        <v>978</v>
-      </c>
-      <c r="C567" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="D567" s="6">
-        <v>94910</v>
-      </c>
-      <c r="E567" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F567" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G567" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H567" s="6">
-        <v>0</v>
-      </c>
-      <c r="I567" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J567" s="7">
-        <v>42745</v>
-      </c>
-      <c r="K567" s="6">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="L567" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A568" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B568" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="C568" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="D568" s="2">
-        <v>525517</v>
-      </c>
-      <c r="E568" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F568" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G568" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H568" s="2">
-        <v>0</v>
-      </c>
-      <c r="I568" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J568" s="3">
-        <v>43023</v>
-      </c>
-      <c r="K568" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="L568" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A569" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B569" s="6" t="s">
-        <v>978</v>
-      </c>
-      <c r="C569" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="D569" s="6">
-        <v>525552</v>
-      </c>
-      <c r="E569" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="F569" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G569" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H569" s="6">
-        <v>0</v>
-      </c>
-      <c r="I569" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J569" s="7">
-        <v>43023</v>
-      </c>
-      <c r="K569" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="L569" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A570" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B570" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="C570" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="D570" s="2">
-        <v>525552</v>
-      </c>
-      <c r="E570" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F570" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G570" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H570" s="2">
-        <v>0</v>
-      </c>
-      <c r="I570" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J570" s="3">
-        <v>43023</v>
-      </c>
-      <c r="K570" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="L570" s="4" t="s">
-        <v>25</v>
+      <c r="J570" s="7">
+        <v>43299</v>
+      </c>
+      <c r="K570" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L570" s="8" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B571" s="6" t="s">
         <v>978</v>
       </c>
       <c r="C571" s="6">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D571" s="6">
-        <v>82005</v>
+        <v>94910</v>
       </c>
       <c r="E571" s="6" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="F571" s="6" t="s">
         <v>42</v>
@@ -25798,36 +25824,36 @@
         <v>0</v>
       </c>
       <c r="I571" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J571" s="7">
-        <v>43032</v>
-      </c>
-      <c r="K571" s="6" t="s">
-        <v>62</v>
+        <v>42745</v>
+      </c>
+      <c r="K571" s="6">
+        <v>1.1200000000000001</v>
       </c>
       <c r="L571" s="8" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>311</v>
+        <v>985</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>978</v>
       </c>
       <c r="C572" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="D572" s="2">
-        <v>9626</v>
+        <v>525517</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G572" s="2" t="s">
         <v>4</v>
@@ -25839,33 +25865,33 @@
         <v>16</v>
       </c>
       <c r="J572" s="3">
-        <v>43138</v>
-      </c>
-      <c r="K572" s="2">
-        <v>1.1000000000000001</v>
+        <v>43023</v>
+      </c>
+      <c r="K572" s="2" t="s">
+        <v>663</v>
       </c>
       <c r="L572" s="4" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B573" s="6" t="s">
         <v>978</v>
       </c>
       <c r="C573" s="6">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D573" s="6">
-        <v>16190</v>
+        <v>525552</v>
       </c>
       <c r="E573" s="6" t="s">
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="F573" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G573" s="6" t="s">
         <v>4</v>
@@ -25877,18 +25903,18 @@
         <v>16</v>
       </c>
       <c r="J573" s="7">
-        <v>43214</v>
+        <v>43023</v>
       </c>
       <c r="K573" s="6" t="s">
-        <v>988</v>
+        <v>663</v>
       </c>
       <c r="L573" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>978</v>
@@ -25897,13 +25923,13 @@
         <v>4.3</v>
       </c>
       <c r="D574" s="2">
-        <v>43055</v>
+        <v>525552</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>970</v>
+        <v>335</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G574" s="2" t="s">
         <v>4</v>
@@ -25915,33 +25941,33 @@
         <v>16</v>
       </c>
       <c r="J574" s="3">
-        <v>43280</v>
+        <v>43023</v>
       </c>
       <c r="K574" s="2" t="s">
-        <v>990</v>
+        <v>663</v>
       </c>
       <c r="L574" s="4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="5" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B575" s="6" t="s">
         <v>978</v>
       </c>
       <c r="C575" s="6">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D575" s="6">
-        <v>43060</v>
+        <v>82005</v>
       </c>
       <c r="E575" s="6" t="s">
-        <v>970</v>
+        <v>93</v>
       </c>
       <c r="F575" s="6" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G575" s="6" t="s">
         <v>4</v>
@@ -25950,36 +25976,36 @@
         <v>0</v>
       </c>
       <c r="I575" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J575" s="7">
-        <v>43280</v>
+        <v>43032</v>
       </c>
       <c r="K575" s="6" t="s">
-        <v>990</v>
+        <v>62</v>
       </c>
       <c r="L575" s="8" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>989</v>
+        <v>761</v>
       </c>
       <c r="B576" s="2" t="s">
         <v>978</v>
       </c>
       <c r="C576" s="2">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D576" s="2">
-        <v>43060</v>
+        <v>216849</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>970</v>
+        <v>112</v>
       </c>
       <c r="F576" s="2" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G576" s="2" t="s">
         <v>4</v>
@@ -25991,71 +26017,71 @@
         <v>16</v>
       </c>
       <c r="J576" s="3">
-        <v>43280</v>
+        <v>43297</v>
       </c>
       <c r="K576" s="2" t="s">
-        <v>990</v>
+        <v>112</v>
       </c>
       <c r="L576" s="4" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A577" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="B577" s="6" t="s">
+      <c r="A577" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B577" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="C577" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="D577" s="6">
-        <v>43090</v>
-      </c>
-      <c r="E577" s="6" t="s">
-        <v>970</v>
-      </c>
-      <c r="F577" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G577" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H577" s="6">
-        <v>0</v>
-      </c>
-      <c r="I577" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J577" s="7">
-        <v>43280</v>
-      </c>
-      <c r="K577" s="6" t="s">
-        <v>990</v>
-      </c>
-      <c r="L577" s="8" t="s">
+      <c r="C577" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D577" s="2">
+        <v>76608</v>
+      </c>
+      <c r="E577" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F577" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G577" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H577" s="2">
+        <v>0</v>
+      </c>
+      <c r="I577" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J577" s="3">
+        <v>42740</v>
+      </c>
+      <c r="K577" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="L577" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>761</v>
+        <v>311</v>
       </c>
       <c r="B578" s="2" t="s">
         <v>978</v>
       </c>
       <c r="C578" s="2">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D578" s="2">
-        <v>216849</v>
+        <v>9626</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G578" s="2" t="s">
         <v>4</v>
@@ -26067,54 +26093,54 @@
         <v>16</v>
       </c>
       <c r="J578" s="3">
-        <v>43297</v>
-      </c>
-      <c r="K578" s="2" t="s">
-        <v>112</v>
+        <v>43138</v>
+      </c>
+      <c r="K578" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L578" s="4" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579" s="5" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B579" s="6" t="s">
         <v>978</v>
       </c>
       <c r="C579" s="6">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D579" s="6">
-        <v>1985</v>
+        <v>16190</v>
       </c>
       <c r="E579" s="6" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="F579" s="6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G579" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H579" s="10">
-        <v>3.99</v>
+        <v>4</v>
+      </c>
+      <c r="H579" s="6">
+        <v>0</v>
       </c>
       <c r="I579" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J579" s="7">
-        <v>43299</v>
+        <v>43214</v>
       </c>
       <c r="K579" s="6" t="s">
-        <v>67</v>
+        <v>988</v>
       </c>
       <c r="L579" s="8" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>992</v>
       </c>
@@ -26152,7 +26178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="5" t="s">
         <v>995</v>
       </c>
@@ -26190,7 +26216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>997</v>
       </c>
@@ -26228,7 +26254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="5" t="s">
         <v>999</v>
       </c>
@@ -26262,7 +26288,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>1000</v>
       </c>
@@ -26296,7 +26322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="5" t="s">
         <v>1002</v>
       </c>
@@ -26334,7 +26360,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>1003</v>
       </c>
@@ -26372,7 +26398,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="5" t="s">
         <v>1004</v>
       </c>
@@ -26410,7 +26436,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>1006</v>
       </c>
@@ -26448,7 +26474,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="5" t="s">
         <v>1007</v>
       </c>
@@ -26486,7 +26512,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>1008</v>
       </c>
@@ -26520,7 +26546,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="5" t="s">
         <v>1009</v>
       </c>
@@ -26554,7 +26580,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>1010</v>
       </c>
@@ -26588,7 +26614,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="5" t="s">
         <v>1011</v>
       </c>
@@ -26626,7 +26652,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>1014</v>
       </c>
@@ -26664,7 +26690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="5" t="s">
         <v>1015</v>
       </c>
@@ -26702,7 +26728,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>1016</v>
       </c>
@@ -26740,7 +26766,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="5" t="s">
         <v>1018</v>
       </c>
@@ -26778,7 +26804,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>1019</v>
       </c>
@@ -26812,7 +26838,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="5" t="s">
         <v>1020</v>
       </c>
@@ -26846,7 +26872,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>1021</v>
       </c>
@@ -26880,7 +26906,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="5" t="s">
         <v>1022</v>
       </c>
@@ -26918,7 +26944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>1023</v>
       </c>
@@ -26956,7 +26982,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="5" t="s">
         <v>1025</v>
       </c>
@@ -26994,7 +27020,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>1026</v>
       </c>
@@ -27032,7 +27058,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="5" t="s">
         <v>1027</v>
       </c>
@@ -27066,7 +27092,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>1029</v>
       </c>
@@ -27100,7 +27126,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="5" t="s">
         <v>1030</v>
       </c>
@@ -27138,7 +27164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>1032</v>
       </c>
@@ -27176,7 +27202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="5" t="s">
         <v>1033</v>
       </c>
@@ -27214,7 +27240,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>1034</v>
       </c>
@@ -27248,7 +27274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="5" t="s">
         <v>1035</v>
       </c>
@@ -27286,7 +27312,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>1036</v>
       </c>
@@ -27320,7 +27346,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="5" t="s">
         <v>1038</v>
       </c>
@@ -27354,7 +27380,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>1040</v>
       </c>
@@ -27388,7 +27414,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="5" t="s">
         <v>1042</v>
       </c>
@@ -27422,7 +27448,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>1043</v>
       </c>
@@ -27460,7 +27486,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="5" t="s">
         <v>1044</v>
       </c>
@@ -27498,7 +27524,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>1045</v>
       </c>
@@ -27536,7 +27562,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="5" t="s">
         <v>1046</v>
       </c>
@@ -27574,7 +27600,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>1047</v>
       </c>
@@ -27612,7 +27638,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" s="5" t="s">
         <v>1049</v>
       </c>
@@ -27646,7 +27672,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>1050</v>
       </c>
@@ -27680,7 +27706,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="5" t="s">
         <v>1051</v>
       </c>
@@ -27714,7 +27740,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>1052</v>
       </c>
@@ -27752,7 +27778,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="5" t="s">
         <v>1053</v>
       </c>
@@ -27790,7 +27816,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>1054</v>
       </c>
@@ -27828,7 +27854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="5" t="s">
         <v>1055</v>
       </c>
@@ -27862,7 +27888,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>1057</v>
       </c>
@@ -27900,7 +27926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="5" t="s">
         <v>1058</v>
       </c>
@@ -27934,7 +27960,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>1060</v>
       </c>
@@ -27968,7 +27994,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" s="5" t="s">
         <v>1061</v>
       </c>
@@ -28006,7 +28032,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
         <v>1064</v>
       </c>
@@ -28044,7 +28070,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="5" t="s">
         <v>1065</v>
       </c>
@@ -28082,7 +28108,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>1066</v>
       </c>
@@ -28120,7 +28146,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="5" t="s">
         <v>1067</v>
       </c>
@@ -28158,7 +28184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
         <v>1069</v>
       </c>
@@ -28196,7 +28222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" s="5" t="s">
         <v>1071</v>
       </c>
@@ -28234,7 +28260,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
         <v>1072</v>
       </c>
@@ -28272,7 +28298,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="5" t="s">
         <v>1073</v>
       </c>
@@ -28306,7 +28332,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
         <v>1075</v>
       </c>
@@ -28344,7 +28370,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" s="5" t="s">
         <v>1076</v>
       </c>
@@ -28378,7 +28404,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
         <v>1078</v>
       </c>
@@ -28416,7 +28442,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="5" t="s">
         <v>1079</v>
       </c>
@@ -28454,7 +28480,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
         <v>1081</v>
       </c>
@@ -28492,7 +28518,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="5" t="s">
         <v>1083</v>
       </c>
@@ -28530,7 +28556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
         <v>1084</v>
       </c>
@@ -28568,7 +28594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="5" t="s">
         <v>1085</v>
       </c>
@@ -28602,7 +28628,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
         <v>1086</v>
       </c>
@@ -28640,7 +28666,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" s="5" t="s">
         <v>1088</v>
       </c>
@@ -28678,7 +28704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
         <v>1091</v>
       </c>
@@ -28716,7 +28742,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" s="5" t="s">
         <v>1092</v>
       </c>
@@ -28754,7 +28780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
         <v>1094</v>
       </c>
@@ -28788,7 +28814,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" s="5" t="s">
         <v>1096</v>
       </c>
@@ -28822,7 +28848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
         <v>1097</v>
       </c>
@@ -28860,7 +28886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" s="5" t="s">
         <v>1099</v>
       </c>
@@ -28894,7 +28920,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
         <v>1101</v>
       </c>
@@ -28932,7 +28958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" s="5" t="s">
         <v>1102</v>
       </c>
@@ -28970,7 +28996,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>1104</v>
       </c>
@@ -29008,7 +29034,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" s="5" t="s">
         <v>1106</v>
       </c>
@@ -29046,7 +29072,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
         <v>1107</v>
       </c>
@@ -29084,7 +29110,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" s="5" t="s">
         <v>1108</v>
       </c>
@@ -29122,7 +29148,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
         <v>1110</v>
       </c>
@@ -29160,7 +29186,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" s="5" t="s">
         <v>1111</v>
       </c>
@@ -29198,7 +29224,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
         <v>1113</v>
       </c>
@@ -29236,7 +29262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" s="5" t="s">
         <v>1115</v>
       </c>
@@ -29274,7 +29300,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
         <v>1116</v>
       </c>
@@ -29308,7 +29334,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" s="5" t="s">
         <v>1119</v>
       </c>
@@ -29346,7 +29372,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
         <v>1120</v>
       </c>
@@ -29384,7 +29410,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" s="5" t="s">
         <v>1121</v>
       </c>
@@ -29422,7 +29448,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
         <v>1122</v>
       </c>
@@ -29460,7 +29486,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" s="5" t="s">
         <v>1123</v>
       </c>
@@ -29498,7 +29524,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>1123</v>
       </c>
@@ -29536,7 +29562,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" s="5" t="s">
         <v>1125</v>
       </c>
@@ -29574,7 +29600,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
         <v>1127</v>
       </c>
@@ -29612,7 +29638,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" s="5" t="s">
         <v>1129</v>
       </c>
@@ -29650,7 +29676,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
         <v>1131</v>
       </c>
@@ -29688,7 +29714,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" s="5" t="s">
         <v>1133</v>
       </c>
@@ -29726,7 +29752,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
         <v>1134</v>
       </c>
@@ -29764,7 +29790,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" s="5" t="s">
         <v>1134</v>
       </c>
@@ -29802,7 +29828,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
         <v>1136</v>
       </c>
@@ -29840,7 +29866,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" s="5" t="s">
         <v>1138</v>
       </c>
@@ -29878,7 +29904,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
         <v>1140</v>
       </c>
@@ -29916,7 +29942,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" s="5" t="s">
         <v>1141</v>
       </c>
@@ -29950,7 +29976,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
         <v>1142</v>
       </c>
@@ -29984,7 +30010,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" s="5" t="s">
         <v>1143</v>
       </c>
@@ -30018,7 +30044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
         <v>1144</v>
       </c>
@@ -30052,7 +30078,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" s="5" t="s">
         <v>1146</v>
       </c>
@@ -30086,7 +30112,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
         <v>1147</v>
       </c>
@@ -30120,7 +30146,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" s="5" t="s">
         <v>1148</v>
       </c>
@@ -30154,7 +30180,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
         <v>1149</v>
       </c>
@@ -30188,7 +30214,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="5" t="s">
         <v>1150</v>
       </c>
@@ -30222,7 +30248,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
         <v>1152</v>
       </c>
@@ -30256,7 +30282,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" s="5" t="s">
         <v>1153</v>
       </c>
@@ -30290,7 +30316,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
         <v>1155</v>
       </c>
@@ -30324,7 +30350,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" s="5" t="s">
         <v>1157</v>
       </c>
@@ -30358,7 +30384,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
         <v>1078</v>
       </c>
@@ -30392,7 +30418,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" s="5" t="s">
         <v>1078</v>
       </c>
@@ -30426,7 +30452,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
         <v>1159</v>
       </c>
@@ -30460,7 +30486,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" s="5" t="s">
         <v>1160</v>
       </c>
@@ -30494,7 +30520,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
         <v>1161</v>
       </c>
@@ -30528,7 +30554,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" s="5" t="s">
         <v>1164</v>
       </c>
@@ -30562,7 +30588,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
         <v>1165</v>
       </c>
@@ -30596,7 +30622,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" s="5" t="s">
         <v>1169</v>
       </c>
@@ -30630,7 +30656,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
         <v>1169</v>
       </c>
@@ -30664,7 +30690,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" s="5" t="s">
         <v>1169</v>
       </c>
@@ -30698,7 +30724,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
         <v>1170</v>
       </c>
@@ -30732,7 +30758,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" s="5" t="s">
         <v>1172</v>
       </c>
@@ -30766,7 +30792,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
         <v>1175</v>
       </c>
@@ -30800,7 +30826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" s="5" t="s">
         <v>1176</v>
       </c>
@@ -30834,7 +30860,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
         <v>1177</v>
       </c>
@@ -30868,7 +30894,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" s="5" t="s">
         <v>1178</v>
       </c>
@@ -30902,7 +30928,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
         <v>1181</v>
       </c>
@@ -30936,7 +30962,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" s="5" t="s">
         <v>1182</v>
       </c>
@@ -30970,7 +30996,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
         <v>1183</v>
       </c>
@@ -31004,7 +31030,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" s="5" t="s">
         <v>1184</v>
       </c>
@@ -31038,7 +31064,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
         <v>1186</v>
       </c>
@@ -31072,7 +31098,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" s="5" t="s">
         <v>1187</v>
       </c>
@@ -31106,7 +31132,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
         <v>1188</v>
       </c>
@@ -31140,7 +31166,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" s="5" t="s">
         <v>1190</v>
       </c>
@@ -31174,7 +31200,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
         <v>1191</v>
       </c>
@@ -31208,7 +31234,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" s="5" t="s">
         <v>1192</v>
       </c>
@@ -31242,7 +31268,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
         <v>1193</v>
       </c>
@@ -31276,7 +31302,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" s="5" t="s">
         <v>1194</v>
       </c>
@@ -31310,7 +31336,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
         <v>1195</v>
       </c>
@@ -31344,7 +31370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" s="5" t="s">
         <v>1196</v>
       </c>
@@ -31378,7 +31404,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
         <v>1198</v>
       </c>
@@ -31412,7 +31438,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" s="5" t="s">
         <v>1198</v>
       </c>
@@ -31446,7 +31472,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
         <v>1199</v>
       </c>
@@ -31480,7 +31506,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" s="5" t="s">
         <v>1136</v>
       </c>
@@ -31514,7 +31540,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
         <v>1204</v>
       </c>
@@ -31548,7 +31574,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" s="5" t="s">
         <v>1204</v>
       </c>
@@ -31582,7 +31608,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
         <v>1205</v>
       </c>
@@ -31616,7 +31642,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" s="5" t="s">
         <v>1206</v>
       </c>
@@ -31650,7 +31676,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
         <v>1208</v>
       </c>
@@ -31684,7 +31710,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" s="5" t="s">
         <v>1209</v>
       </c>
@@ -31718,7 +31744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
         <v>1211</v>
       </c>
@@ -31752,7 +31778,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="737" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" s="5" t="s">
         <v>1212</v>
       </c>
@@ -31786,7 +31812,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
         <v>1214</v>
       </c>
@@ -31820,7 +31846,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="739" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" s="5" t="s">
         <v>1217</v>
       </c>
@@ -31854,7 +31880,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
         <v>1219</v>
       </c>
@@ -31888,7 +31914,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" s="5" t="s">
         <v>1220</v>
       </c>
@@ -31922,7 +31948,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="742" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
         <v>1221</v>
       </c>
@@ -31956,7 +31982,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="743" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" s="5" t="s">
         <v>1223</v>
       </c>
@@ -31990,7 +32016,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="744" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
         <v>1225</v>
       </c>
@@ -32024,7 +32050,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="745" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" s="5" t="s">
         <v>1227</v>
       </c>
@@ -32058,7 +32084,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="746" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
         <v>1228</v>
       </c>
@@ -32092,7 +32118,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="747" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" s="5" t="s">
         <v>1229</v>
       </c>
@@ -32126,7 +32152,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="748" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
         <v>1230</v>
       </c>
@@ -32160,7 +32186,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="749" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" s="5" t="s">
         <v>1233</v>
       </c>
@@ -32194,7 +32220,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="750" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
         <v>1236</v>
       </c>
@@ -32228,7 +32254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="751" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" s="5" t="s">
         <v>1239</v>
       </c>
@@ -32262,7 +32288,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="752" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
         <v>1240</v>
       </c>
@@ -32296,7 +32322,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="753" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" s="5" t="s">
         <v>1241</v>
       </c>
@@ -32330,7 +32356,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="754" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
         <v>1243</v>
       </c>
@@ -32364,7 +32390,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="755" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" s="5" t="s">
         <v>1246</v>
       </c>
@@ -32398,7 +32424,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="756" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
         <v>1247</v>
       </c>
@@ -32432,7 +32458,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="757" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" s="5" t="s">
         <v>1249</v>
       </c>
@@ -32466,7 +32492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="758" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
         <v>1252</v>
       </c>
@@ -32500,7 +32526,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="759" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" s="5" t="s">
         <v>1256</v>
       </c>
@@ -32534,7 +32560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="760" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
         <v>1259</v>
       </c>
@@ -32568,7 +32594,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="761" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" s="5" t="s">
         <v>1260</v>
       </c>
@@ -32602,7 +32628,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="762" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
         <v>1262</v>
       </c>
@@ -32636,7 +32662,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="763" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" s="5" t="s">
         <v>1263</v>
       </c>
@@ -32670,7 +32696,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="764" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
         <v>1266</v>
       </c>
@@ -32704,7 +32730,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="765" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" s="5" t="s">
         <v>1268</v>
       </c>
@@ -32738,7 +32764,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="766" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
         <v>1270</v>
       </c>
@@ -32772,7 +32798,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="767" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" s="5" t="s">
         <v>1272</v>
       </c>
@@ -32806,7 +32832,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="768" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
         <v>1273</v>
       </c>
@@ -32840,7 +32866,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="769" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" s="5" t="s">
         <v>1275</v>
       </c>
@@ -32874,7 +32900,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="770" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
         <v>1278</v>
       </c>
@@ -32908,7 +32934,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="771" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" s="5" t="s">
         <v>1278</v>
       </c>
@@ -32942,7 +32968,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
         <v>1281</v>
       </c>
@@ -32976,7 +33002,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="773" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" s="5" t="s">
         <v>1283</v>
       </c>
@@ -33010,7 +33036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="774" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
         <v>1127</v>
       </c>
@@ -33044,7 +33070,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="775" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" s="5" t="s">
         <v>1288</v>
       </c>
@@ -33078,7 +33104,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="776" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
         <v>1289</v>
       </c>
@@ -33112,7 +33138,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="777" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" s="5" t="s">
         <v>1291</v>
       </c>
@@ -33146,7 +33172,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="778" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
         <v>1293</v>
       </c>
@@ -33180,7 +33206,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="779" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" s="5" t="s">
         <v>1294</v>
       </c>
@@ -33214,7 +33240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="780" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
         <v>1296</v>
       </c>
@@ -33248,7 +33274,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="781" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" s="5" t="s">
         <v>1299</v>
       </c>
@@ -33282,7 +33308,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="782" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
         <v>1302</v>
       </c>
@@ -33316,7 +33342,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="783" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" s="5" t="s">
         <v>1303</v>
       </c>
@@ -33350,7 +33376,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="784" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" s="1" t="s">
         <v>1305</v>
       </c>
@@ -33384,7 +33410,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="785" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" s="5" t="s">
         <v>1309</v>
       </c>
@@ -33418,7 +33444,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
         <v>1310</v>
       </c>
@@ -33452,7 +33478,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" s="5" t="s">
         <v>1312</v>
       </c>
@@ -33486,7 +33512,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" s="1" t="s">
         <v>1314</v>
       </c>
@@ -33520,7 +33546,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" s="5" t="s">
         <v>1315</v>
       </c>
@@ -33554,7 +33580,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" s="1" t="s">
         <v>1318</v>
       </c>
@@ -33588,7 +33614,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="791" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" s="5" t="s">
         <v>1320</v>
       </c>
@@ -33622,7 +33648,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="792" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" s="1" t="s">
         <v>1322</v>
       </c>
@@ -33656,7 +33682,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" s="5" t="s">
         <v>1322</v>
       </c>
@@ -33690,7 +33716,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" s="1" t="s">
         <v>1322</v>
       </c>
@@ -33724,7 +33750,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" s="5" t="s">
         <v>1322</v>
       </c>
@@ -33758,7 +33784,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="796" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" s="1" t="s">
         <v>1323</v>
       </c>
@@ -33792,7 +33818,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="797" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" s="5" t="s">
         <v>1326</v>
       </c>
@@ -33826,7 +33852,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="798" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" s="1" t="s">
         <v>1327</v>
       </c>
@@ -33860,7 +33886,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="799" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" s="5" t="s">
         <v>1328</v>
       </c>
@@ -33894,7 +33920,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="800" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" s="1" t="s">
         <v>1328</v>
       </c>
@@ -33928,7 +33954,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="801" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" s="5" t="s">
         <v>1329</v>
       </c>
@@ -33962,7 +33988,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="802" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" s="1" t="s">
         <v>1331</v>
       </c>
@@ -33996,7 +34022,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="803" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" s="5" t="s">
         <v>1333</v>
       </c>
@@ -34030,7 +34056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="804" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" s="1" t="s">
         <v>1335</v>
       </c>
@@ -34064,7 +34090,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="805" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" s="5" t="s">
         <v>1337</v>
       </c>
@@ -34098,7 +34124,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="806" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" s="1" t="s">
         <v>1338</v>
       </c>
@@ -34132,7 +34158,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" s="5" t="s">
         <v>1337</v>
       </c>
@@ -34166,7 +34192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" s="1" t="s">
         <v>1341</v>
       </c>
@@ -34200,7 +34226,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" s="5" t="s">
         <v>1338</v>
       </c>
@@ -34234,7 +34260,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="810" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" s="1" t="s">
         <v>1342</v>
       </c>
@@ -34268,7 +34294,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="811" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" s="5" t="s">
         <v>1344</v>
       </c>
@@ -34302,7 +34328,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="812" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" s="1" t="s">
         <v>1346</v>
       </c>
@@ -34336,7 +34362,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" s="5" t="s">
         <v>1348</v>
       </c>
@@ -34370,7 +34396,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" s="1" t="s">
         <v>1129</v>
       </c>
@@ -34404,7 +34430,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" s="5" t="s">
         <v>1352</v>
       </c>
@@ -34438,7 +34464,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="816" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" s="1" t="s">
         <v>1352</v>
       </c>
@@ -34472,7 +34498,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="817" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" s="5" t="s">
         <v>1354</v>
       </c>
@@ -34506,7 +34532,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
         <v>1356</v>
       </c>
@@ -34540,7 +34566,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" s="5" t="s">
         <v>1358</v>
       </c>
@@ -34574,7 +34600,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="820" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
         <v>1134</v>
       </c>
@@ -34608,7 +34634,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="821" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" s="5" t="s">
         <v>1361</v>
       </c>
@@ -34642,7 +34668,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
         <v>1361</v>
       </c>
@@ -34676,7 +34702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="823" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" s="5" t="s">
         <v>1364</v>
       </c>
@@ -34710,7 +34736,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="824" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
         <v>1368</v>
       </c>
@@ -34744,7 +34770,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="825" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" s="5" t="s">
         <v>1371</v>
       </c>
@@ -34778,7 +34804,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="826" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
         <v>1123</v>
       </c>
@@ -34812,7 +34838,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="827" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" s="5" t="s">
         <v>1373</v>
       </c>
@@ -34846,7 +34872,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="828" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
         <v>1376</v>
       </c>
@@ -34880,7 +34906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="829" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" s="5" t="s">
         <v>1123</v>
       </c>
@@ -34914,7 +34940,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="830" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>1380</v>
       </c>
@@ -34948,7 +34974,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="831" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" s="5" t="s">
         <v>1383</v>
       </c>
@@ -34982,7 +35008,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="832" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
         <v>1385</v>
       </c>
@@ -35016,7 +35042,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="833" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" s="5" t="s">
         <v>1387</v>
       </c>
@@ -35050,7 +35076,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="834" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
         <v>1389</v>
       </c>
@@ -35084,7 +35110,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="835" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" s="5" t="s">
         <v>1391</v>
       </c>
@@ -35118,7 +35144,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="836" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
         <v>1393</v>
       </c>
@@ -35152,7 +35178,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="837" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" s="5" t="s">
         <v>1395</v>
       </c>
@@ -35186,7 +35212,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="838" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" s="1" t="s">
         <v>1398</v>
       </c>
@@ -35220,7 +35246,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="839" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839" s="5" t="s">
         <v>1401</v>
       </c>
@@ -35254,7 +35280,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="840" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
         <v>1405</v>
       </c>
@@ -35288,7 +35314,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="841" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" s="5" t="s">
         <v>1408</v>
       </c>
@@ -35322,7 +35348,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="842" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
         <v>1410</v>
       </c>
@@ -35356,7 +35382,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="843" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" s="5" t="s">
         <v>1411</v>
       </c>
@@ -35390,7 +35416,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="844" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" s="1" t="s">
         <v>1415</v>
       </c>
@@ -35424,7 +35450,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="845" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" s="5" t="s">
         <v>1417</v>
       </c>
@@ -35458,7 +35484,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="846" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
         <v>1419</v>
       </c>
@@ -35492,7 +35518,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="847" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" s="5" t="s">
         <v>1421</v>
       </c>
@@ -35526,7 +35552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="848" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
         <v>1423</v>
       </c>
@@ -35560,7 +35586,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="849" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" s="5" t="s">
         <v>1425</v>
       </c>
@@ -35594,7 +35620,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="850" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" s="1" t="s">
         <v>1428</v>
       </c>
@@ -35628,7 +35654,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="851" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851" s="5" t="s">
         <v>1430</v>
       </c>
@@ -35662,7 +35688,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="852" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852" s="1" t="s">
         <v>1433</v>
       </c>
@@ -35696,7 +35722,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="853" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" s="5" t="s">
         <v>1434</v>
       </c>
@@ -35730,7 +35756,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="854" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854" s="1" t="s">
         <v>1437</v>
       </c>
@@ -35764,7 +35790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="855" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" s="5" t="s">
         <v>1438</v>
       </c>
@@ -35798,7 +35824,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="856" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856" s="1" t="s">
         <v>1441</v>
       </c>
@@ -35832,7 +35858,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="857" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857" s="5" t="s">
         <v>1444</v>
       </c>
@@ -35866,7 +35892,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="858" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858" s="1" t="s">
         <v>1447</v>
       </c>
@@ -35900,7 +35926,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="859" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859" s="5" t="s">
         <v>1448</v>
       </c>
@@ -35935,6 +35961,595 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L859" xr:uid="{F2F226AF-7D3D-2B47-93EE-03354105C8A3}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Action;Action &amp; Adventure"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="3,1"/>
+        <filter val="3,2"/>
+        <filter val="3,3"/>
+        <filter val="3,4"/>
+        <filter val="3,5"/>
+        <filter val="3,6"/>
+        <filter val="3,7"/>
+        <filter val="3,8"/>
+        <filter val="3,9"/>
+        <filter val="4"/>
+        <filter val="4,1"/>
+        <filter val="4,2"/>
+        <filter val="4,3"/>
+        <filter val="4,4"/>
+        <filter val="4,5"/>
+        <filter val="4,6"/>
+        <filter val="4,7"/>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A563:L579">
+      <sortCondition descending="1" ref="F1:F859"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA35EE46-9112-3941-8AC4-0FA6CE730341}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B10" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B17" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{FA35EE46-9112-3941-8AC4-0FA6CE730341}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F18">
+      <sortCondition ref="D1:D18"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38737967-572E-524D-8D32-6F17633B3BE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F95F9BC-36EB-014B-A66D-E07BEB686FBD}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>